--- a/taskupdates.xlsx
+++ b/taskupdates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugat\Desktop\MyCredibleInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C48CD66-6DBC-40F7-B347-CBBC348775A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D417A-AA9E-4CA0-B4A6-36B0DC3DE5C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Had First meeting, Got the tasks, Created Git repo</t>
+  </si>
+  <si>
+    <t>Had a session on Git and Postman</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,8 +459,12 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1">
+        <v>43510</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">

--- a/taskupdates.xlsx
+++ b/taskupdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugat\Desktop\MyCredibleInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D417A-AA9E-4CA0-B4A6-36B0DC3DE5C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771683F4-5FCA-4F5B-9552-2AF0DD0F782B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18888" yWindow="720" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -37,12 +37,42 @@
   </si>
   <si>
     <t>Had a session on Git and Postman</t>
+  </si>
+  <si>
+    <t>Learnt about RESTful APIs, Retrofit, gsonconverters</t>
+  </si>
+  <si>
+    <t>Created Main Profile UI(HomeActivity) with fragments</t>
+  </si>
+  <si>
+    <t>Created Signup page asking Personal, Professional and Education Details</t>
+  </si>
+  <si>
+    <t>Created Fragment's UI for each of the information types and connecting them APIs</t>
+  </si>
+  <si>
+    <t>Created login screen UI(LoginActivity) and connected it with API</t>
+  </si>
+  <si>
+    <t>Learnt about Picasso and implemented it in app to show profile image</t>
+  </si>
+  <si>
+    <t>Connected the app properly and verified it</t>
+  </si>
+  <si>
+    <t>Added Permission Manager for easy runtime permissions management</t>
+  </si>
+  <si>
+    <t>Create Linkedin Post, made a video demo, and submitted App</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -79,8 +109,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,16 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
   </cols>
@@ -448,7 +478,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>43508</v>
       </c>
       <c r="C2" t="s">
@@ -459,10 +489,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>43510</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -470,23 +500,104 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2">
+        <v>43511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2">
+        <v>43512</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2">
+        <v>43513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43517</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43520</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43521</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43524</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
